--- a/Proyecto_Documentation/cultivos_anual_tabla.xlsx
+++ b/Proyecto_Documentation/cultivos_anual_tabla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="cultivos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="58">
   <si>
     <t>cultivo</t>
   </si>
@@ -133,24 +133,9 @@
     <t>Attributes_en</t>
   </si>
   <si>
-    <t>Surface sowing per month</t>
-  </si>
-  <si>
-    <t>Surface harvested per month</t>
-  </si>
-  <si>
     <t>Monthly production</t>
   </si>
   <si>
-    <t>Montly Yield</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>mfp</t>
-  </si>
-  <si>
     <t>mp</t>
   </si>
   <si>
@@ -160,12 +145,6 @@
     <t>ssm</t>
   </si>
   <si>
-    <t>Monthly Farm price</t>
-  </si>
-  <si>
-    <t>papá</t>
-  </si>
-  <si>
     <t>plátano</t>
   </si>
   <si>
@@ -173,6 +152,48 @@
   </si>
   <si>
     <t>orange</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>mafpl</t>
+  </si>
+  <si>
+    <t>Sowing area by month</t>
+  </si>
+  <si>
+    <t>Harvested area by month</t>
+  </si>
+  <si>
+    <t>Monthly average price by plot</t>
+  </si>
+  <si>
+    <t>Montly average yield</t>
+  </si>
+  <si>
+    <t>papa</t>
+  </si>
+  <si>
+    <t>J.Lockhuan</t>
+  </si>
+  <si>
+    <t>Encargado</t>
+  </si>
+  <si>
+    <t>G.Cruz</t>
+  </si>
+  <si>
+    <t>G.K. Guevara</t>
+  </si>
+  <si>
+    <t>Ch.Mendez</t>
+  </si>
+  <si>
+    <t>P.Gutierrez</t>
+  </si>
+  <si>
+    <t>O.Benites</t>
   </si>
 </sst>
 </file>
@@ -204,15 +225,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,23 +275,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,475 +618,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5">
         <v>2005</v>
       </c>
-      <c r="D1" s="4">
+      <c r="E1" s="5">
         <v>2006</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F1" s="5">
         <v>2007</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="5">
         <v>2008</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H1" s="5">
         <v>2009</v>
       </c>
-      <c r="H1" s="4">
+      <c r="I1" s="5">
         <v>2010</v>
       </c>
-      <c r="I1" s="4">
+      <c r="J1" s="5">
         <v>2011</v>
       </c>
-      <c r="J1" s="4">
+      <c r="K1" s="5">
         <v>2012</v>
       </c>
-      <c r="K1" s="4">
+      <c r="L1" s="5">
         <v>2013</v>
       </c>
-      <c r="L1" s="4">
+      <c r="M1" s="5">
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1073,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,86 +1162,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Proyecto_Documentation/cultivos_anual_tabla.xlsx
+++ b/Proyecto_Documentation/cultivos_anual_tabla.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cultivos" sheetId="1" r:id="rId1"/>
     <sheet name="variables" sheetId="2" r:id="rId2"/>
+    <sheet name="tabla_ejemplo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="66">
   <si>
     <t>cultivo</t>
   </si>
@@ -55,9 +56,6 @@
     <t>tomate</t>
   </si>
   <si>
-    <t>sweet-potato</t>
-  </si>
-  <si>
     <t>wheat</t>
   </si>
   <si>
@@ -136,15 +134,6 @@
     <t>Monthly production</t>
   </si>
   <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>shm</t>
-  </si>
-  <si>
-    <t>ssm</t>
-  </si>
-  <si>
     <t>plátano</t>
   </si>
   <si>
@@ -154,12 +143,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>mafpl</t>
-  </si>
-  <si>
     <t>Sowing area by month</t>
   </si>
   <si>
@@ -190,10 +173,52 @@
     <t>Ch.Mendez</t>
   </si>
   <si>
-    <t>P.Gutierrez</t>
-  </si>
-  <si>
-    <t>O.Benites</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>ayield</t>
+  </si>
+  <si>
+    <t>applot</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>sowa</t>
+  </si>
+  <si>
+    <t>harva</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>rojo</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>P.Gutierrez/O.Benites</t>
+  </si>
+  <si>
+    <t>sweetpotato</t>
+  </si>
+  <si>
+    <t>gris</t>
+  </si>
+  <si>
+    <t>Tabla</t>
   </si>
 </sst>
 </file>
@@ -225,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -303,7 +334,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,20 +656,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -639,504 +678,540 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="5">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5">
         <v>2005</v>
       </c>
-      <c r="E1" s="5">
+      <c r="F1" s="5">
         <v>2006</v>
       </c>
-      <c r="F1" s="5">
+      <c r="G1" s="5">
         <v>2007</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
         <v>2008</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <v>2009</v>
       </c>
-      <c r="I1" s="5">
+      <c r="J1" s="5">
         <v>2010</v>
       </c>
-      <c r="J1" s="5">
+      <c r="K1" s="5">
         <v>2011</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="5">
         <v>2012</v>
       </c>
-      <c r="L1" s="5">
+      <c r="M1" s="5">
         <v>2013</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="5">
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1147,102 +1222,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto_Documentation/cultivos_anual_tabla.xlsx
+++ b/Proyecto_Documentation/cultivos_anual_tabla.xlsx
@@ -182,12 +182,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>ayield</t>
-  </si>
-  <si>
-    <t>applot</t>
-  </si>
-  <si>
     <t>production</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>Tabla</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>pricePlot</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -342,6 +348,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +688,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5">
         <v>2005</v>
@@ -725,7 +732,7 @@
         <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -769,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -807,13 +814,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -857,7 +864,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -989,7 +996,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -1033,7 +1040,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1074,10 +1081,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -1118,10 +1125,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -1162,10 +1169,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -1225,7 +1232,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1258,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1262,7 +1269,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
@@ -1279,7 +1286,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
@@ -1296,7 +1303,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -1312,8 +1319,8 @@
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -1329,8 +1336,8 @@
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
+      <c r="C6" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
@@ -1349,7 +1356,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,20 +1381,20 @@
       <c r="C1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>54</v>
+      <c r="G1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
